--- a/Data/EUDA/Cannabis_detaille/drogues_entrants.xlsx
+++ b/Data/EUDA/Cannabis_detaille/drogues_entrants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,50 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>All substances</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>All substances</t>
+          <t>Opioids</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Opioids</t>
+          <t>Cocaine</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cocaine</t>
+          <t>Stimulants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stimulants</t>
+          <t>Hypnotics and Sedatives</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Hypnotics and Sedatives</t>
+          <t>Hallucinogens</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Hallucinogens</t>
+          <t>Volatile Inhalants</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Volatile Inhalants</t>
+          <t>Cannabis</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Cannabis</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Other substances</t>
         </is>
@@ -497,33 +492,30 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>4709</v>
       </c>
       <c r="C2" t="n">
-        <v>4709</v>
+        <v>1941</v>
       </c>
       <c r="D2" t="n">
-        <v>1941</v>
+        <v>654</v>
       </c>
       <c r="E2" t="n">
-        <v>654</v>
+        <v>295</v>
       </c>
       <c r="F2" t="n">
-        <v>295</v>
+        <v>141</v>
       </c>
       <c r="G2" t="n">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1124</v>
       </c>
       <c r="J2" t="n">
-        <v>1124</v>
-      </c>
-      <c r="K2" t="n">
         <v>20</v>
       </c>
     </row>
@@ -534,33 +526,30 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>12144</v>
       </c>
       <c r="C3" t="n">
-        <v>12144</v>
+        <v>1897</v>
       </c>
       <c r="D3" t="n">
-        <v>1897</v>
+        <v>3444</v>
       </c>
       <c r="E3" t="n">
-        <v>3444</v>
+        <v>1233</v>
       </c>
       <c r="F3" t="n">
-        <v>1233</v>
+        <v>728</v>
       </c>
       <c r="G3" t="n">
-        <v>728</v>
+        <v>337</v>
       </c>
       <c r="H3" t="n">
-        <v>337</v>
+        <v>28</v>
       </c>
       <c r="I3" t="n">
-        <v>28</v>
+        <v>3501</v>
       </c>
       <c r="J3" t="n">
-        <v>3501</v>
-      </c>
-      <c r="K3" t="n">
         <v>65</v>
       </c>
     </row>
@@ -571,33 +560,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>1879</v>
       </c>
       <c r="C4" t="n">
-        <v>1879</v>
+        <v>627</v>
       </c>
       <c r="D4" t="n">
-        <v>627</v>
+        <v>84</v>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="F4" t="n">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="G4" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J4" t="n">
-        <v>109</v>
-      </c>
-      <c r="K4" t="n">
         <v>28</v>
       </c>
     </row>
@@ -608,33 +594,30 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>2315</v>
       </c>
       <c r="C5" t="n">
-        <v>2315</v>
+        <v>1421</v>
       </c>
       <c r="D5" t="n">
-        <v>1421</v>
+        <v>121</v>
       </c>
       <c r="E5" t="n">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F5" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G5" t="n">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>478</v>
       </c>
       <c r="J5" t="n">
-        <v>478</v>
-      </c>
-      <c r="K5" t="n">
         <v>52</v>
       </c>
     </row>
@@ -645,33 +628,30 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>884</v>
       </c>
       <c r="C6" t="n">
-        <v>884</v>
+        <v>169</v>
       </c>
       <c r="D6" t="n">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="E6" t="n">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="F6" t="n">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
         <v>340</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -680,33 +660,30 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>7283</v>
       </c>
       <c r="C7" t="n">
-        <v>7283</v>
+        <v>2747</v>
       </c>
       <c r="D7" t="n">
-        <v>2747</v>
+        <v>62</v>
       </c>
       <c r="E7" t="n">
-        <v>62</v>
+        <v>3059</v>
       </c>
       <c r="F7" t="n">
-        <v>3059</v>
+        <v>277</v>
       </c>
       <c r="G7" t="n">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>1072</v>
       </c>
       <c r="J7" t="n">
-        <v>1072</v>
-      </c>
-      <c r="K7" t="n">
         <v>35</v>
       </c>
     </row>
@@ -717,33 +694,30 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>8241</v>
       </c>
       <c r="C8" t="n">
-        <v>8241</v>
+        <v>682</v>
       </c>
       <c r="D8" t="n">
-        <v>682</v>
+        <v>1397</v>
       </c>
       <c r="E8" t="n">
-        <v>1397</v>
+        <v>360</v>
       </c>
       <c r="F8" t="n">
-        <v>360</v>
+        <v>131</v>
       </c>
       <c r="G8" t="n">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>3085</v>
       </c>
       <c r="J8" t="n">
-        <v>3085</v>
-      </c>
-      <c r="K8" t="n">
         <v>135</v>
       </c>
     </row>
@@ -754,29 +728,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>417</v>
       </c>
       <c r="C9" t="n">
-        <v>417</v>
+        <v>274</v>
       </c>
       <c r="D9" t="n">
-        <v>274</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F9" t="n">
-        <v>90</v>
-      </c>
-      <c r="G9" t="n">
         <v>14</v>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="I9" t="n">
         <v>26</v>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -785,33 +756,30 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>427</v>
       </c>
       <c r="C10" t="n">
-        <v>427</v>
+        <v>167</v>
       </c>
       <c r="D10" t="n">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="F10" t="n">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="G10" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J10" t="n">
-        <v>62</v>
-      </c>
-      <c r="K10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -822,33 +790,30 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>43078</v>
       </c>
       <c r="C11" t="n">
-        <v>43078</v>
+        <v>8637</v>
       </c>
       <c r="D11" t="n">
-        <v>8637</v>
+        <v>4174</v>
       </c>
       <c r="E11" t="n">
-        <v>4174</v>
+        <v>962</v>
       </c>
       <c r="F11" t="n">
-        <v>962</v>
+        <v>1044</v>
       </c>
       <c r="G11" t="n">
-        <v>1044</v>
+        <v>292</v>
       </c>
       <c r="H11" t="n">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="I11" t="n">
-        <v>43</v>
+        <v>19758</v>
       </c>
       <c r="J11" t="n">
-        <v>19758</v>
-      </c>
-      <c r="K11" t="n">
         <v>430</v>
       </c>
     </row>
@@ -859,33 +824,30 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>40466</v>
       </c>
       <c r="C12" t="n">
-        <v>40466</v>
+        <v>5914</v>
       </c>
       <c r="D12" t="n">
-        <v>5914</v>
+        <v>3817</v>
       </c>
       <c r="E12" t="n">
-        <v>3817</v>
+        <v>6300</v>
       </c>
       <c r="F12" t="n">
-        <v>6300</v>
+        <v>988</v>
       </c>
       <c r="G12" t="n">
-        <v>988</v>
+        <v>109</v>
       </c>
       <c r="H12" t="n">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>23228</v>
       </c>
       <c r="J12" t="n">
-        <v>23228</v>
-      </c>
-      <c r="K12" t="n">
         <v>99</v>
       </c>
     </row>
@@ -896,33 +858,30 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>3567</v>
       </c>
       <c r="C13" t="n">
-        <v>3567</v>
+        <v>1659</v>
       </c>
       <c r="D13" t="n">
-        <v>1659</v>
+        <v>707</v>
       </c>
       <c r="E13" t="n">
-        <v>707</v>
+        <v>67</v>
       </c>
       <c r="F13" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="G13" t="n">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="J13" t="n">
-        <v>989</v>
-      </c>
-      <c r="K13" t="n">
         <v>30</v>
       </c>
     </row>
@@ -933,33 +892,30 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>4398</v>
       </c>
       <c r="C14" t="n">
-        <v>4398</v>
+        <v>96</v>
       </c>
       <c r="D14" t="n">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="E14" t="n">
-        <v>244</v>
+        <v>867</v>
       </c>
       <c r="F14" t="n">
-        <v>867</v>
+        <v>77</v>
       </c>
       <c r="G14" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H14" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>2743</v>
       </c>
       <c r="J14" t="n">
-        <v>2743</v>
-      </c>
-      <c r="K14" t="n">
         <v>295</v>
       </c>
     </row>
@@ -970,33 +926,30 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>11488</v>
       </c>
       <c r="C15" t="n">
-        <v>11488</v>
+        <v>3808</v>
       </c>
       <c r="D15" t="n">
-        <v>3808</v>
+        <v>3872</v>
       </c>
       <c r="E15" t="n">
-        <v>3872</v>
+        <v>121</v>
       </c>
       <c r="F15" t="n">
-        <v>121</v>
+        <v>1350</v>
       </c>
       <c r="G15" t="n">
-        <v>1350</v>
+        <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I15" t="n">
-        <v>17</v>
+        <v>2184</v>
       </c>
       <c r="J15" t="n">
-        <v>2184</v>
-      </c>
-      <c r="K15" t="n">
         <v>116</v>
       </c>
     </row>
@@ -1007,33 +960,30 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>34798</v>
       </c>
       <c r="C16" t="n">
-        <v>34798</v>
+        <v>12395</v>
       </c>
       <c r="D16" t="n">
-        <v>12395</v>
+        <v>14132</v>
       </c>
       <c r="E16" t="n">
-        <v>14132</v>
+        <v>178</v>
       </c>
       <c r="F16" t="n">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="G16" t="n">
-        <v>273</v>
+        <v>66</v>
       </c>
       <c r="H16" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>7516</v>
       </c>
       <c r="J16" t="n">
-        <v>7516</v>
-      </c>
-      <c r="K16" t="n">
         <v>234</v>
       </c>
     </row>
@@ -1044,33 +994,30 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>743</v>
       </c>
       <c r="C17" t="n">
-        <v>743</v>
+        <v>263</v>
       </c>
       <c r="D17" t="n">
-        <v>263</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="F17" t="n">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="G17" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="J17" t="n">
-        <v>241</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1081,29 +1028,26 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>429</v>
       </c>
       <c r="C18" t="n">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="D18" t="n">
-        <v>347</v>
+        <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
       </c>
-      <c r="G18" t="n">
-        <v>17</v>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
       <c r="J18" t="n">
-        <v>25</v>
-      </c>
-      <c r="K18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1114,25 +1058,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>253</v>
       </c>
       <c r="C19" t="n">
-        <v>253</v>
+        <v>85</v>
       </c>
       <c r="D19" t="n">
-        <v>85</v>
-      </c>
-      <c r="E19" t="n">
         <v>60</v>
       </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+      <c r="I19" t="n">
         <v>108</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1141,33 +1082,30 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>1927</v>
       </c>
       <c r="C20" t="n">
-        <v>1927</v>
+        <v>919</v>
       </c>
       <c r="D20" t="n">
-        <v>919</v>
+        <v>750</v>
       </c>
       <c r="E20" t="n">
-        <v>750</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="J20" t="n">
-        <v>233</v>
-      </c>
-      <c r="K20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1178,33 +1116,30 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>10987</v>
       </c>
       <c r="C21" t="n">
-        <v>10987</v>
+        <v>1262</v>
       </c>
       <c r="D21" t="n">
-        <v>1262</v>
+        <v>2675</v>
       </c>
       <c r="E21" t="n">
-        <v>2675</v>
+        <v>929</v>
       </c>
       <c r="F21" t="n">
-        <v>929</v>
+        <v>729</v>
       </c>
       <c r="G21" t="n">
-        <v>729</v>
+        <v>17</v>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>5202</v>
       </c>
       <c r="J21" t="n">
-        <v>5202</v>
-      </c>
-      <c r="K21" t="n">
         <v>166</v>
       </c>
     </row>
@@ -1215,33 +1150,30 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022</v>
+        <v>6348</v>
       </c>
       <c r="C22" t="n">
-        <v>6348</v>
+        <v>1154</v>
       </c>
       <c r="D22" t="n">
-        <v>1154</v>
+        <v>316</v>
       </c>
       <c r="E22" t="n">
-        <v>316</v>
+        <v>848</v>
       </c>
       <c r="F22" t="n">
-        <v>848</v>
+        <v>643</v>
       </c>
       <c r="G22" t="n">
-        <v>643</v>
+        <v>35</v>
       </c>
       <c r="H22" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1707</v>
       </c>
       <c r="J22" t="n">
-        <v>1707</v>
-      </c>
-      <c r="K22" t="n">
         <v>1641</v>
       </c>
     </row>
@@ -1252,33 +1184,30 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>4249</v>
       </c>
       <c r="C23" t="n">
-        <v>4249</v>
+        <v>680</v>
       </c>
       <c r="D23" t="n">
-        <v>680</v>
+        <v>145</v>
       </c>
       <c r="E23" t="n">
-        <v>145</v>
+        <v>1932</v>
       </c>
       <c r="F23" t="n">
-        <v>1932</v>
+        <v>184</v>
       </c>
       <c r="G23" t="n">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>1165</v>
       </c>
       <c r="J23" t="n">
-        <v>1165</v>
-      </c>
-      <c r="K23" t="n">
         <v>130</v>
       </c>
     </row>
@@ -1289,31 +1218,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>3596</v>
       </c>
       <c r="C24" t="n">
-        <v>3596</v>
+        <v>1183</v>
       </c>
       <c r="D24" t="n">
-        <v>1183</v>
+        <v>922</v>
       </c>
       <c r="E24" t="n">
-        <v>922</v>
+        <v>43</v>
       </c>
       <c r="F24" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>40</v>
-      </c>
-      <c r="H24" t="n">
         <v>4</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>1238</v>
+      </c>
       <c r="J24" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K24" t="n">
         <v>59</v>
       </c>
     </row>
@@ -1324,33 +1250,30 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>3674</v>
       </c>
       <c r="C25" t="n">
-        <v>3674</v>
+        <v>777</v>
       </c>
       <c r="D25" t="n">
-        <v>777</v>
+        <v>144</v>
       </c>
       <c r="E25" t="n">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="F25" t="n">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="G25" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I25" t="n">
-        <v>16</v>
+        <v>1976</v>
       </c>
       <c r="J25" t="n">
-        <v>1976</v>
-      </c>
-      <c r="K25" t="n">
         <v>412</v>
       </c>
     </row>
@@ -1361,33 +1284,30 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>2452</v>
       </c>
       <c r="C26" t="n">
-        <v>2452</v>
+        <v>292</v>
       </c>
       <c r="D26" t="n">
-        <v>292</v>
+        <v>28</v>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>1123</v>
       </c>
       <c r="F26" t="n">
-        <v>1123</v>
+        <v>125</v>
       </c>
       <c r="G26" t="n">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I26" t="n">
-        <v>34</v>
-      </c>
-      <c r="J26" t="n">
         <v>514</v>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1396,33 +1316,30 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>133</v>
       </c>
       <c r="C27" t="n">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D27" t="n">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
-      </c>
-      <c r="K27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1433,33 +1350,30 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>44347</v>
       </c>
       <c r="C28" t="n">
-        <v>44347</v>
+        <v>8518</v>
       </c>
       <c r="D28" t="n">
-        <v>8518</v>
+        <v>20741</v>
       </c>
       <c r="E28" t="n">
-        <v>20741</v>
+        <v>1368</v>
       </c>
       <c r="F28" t="n">
-        <v>1368</v>
+        <v>1077</v>
       </c>
       <c r="G28" t="n">
-        <v>1077</v>
+        <v>127</v>
       </c>
       <c r="H28" t="n">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="I28" t="n">
-        <v>68</v>
+        <v>12350</v>
       </c>
       <c r="J28" t="n">
-        <v>12350</v>
-      </c>
-      <c r="K28" t="n">
         <v>98</v>
       </c>
     </row>
@@ -1470,31 +1384,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>398</v>
       </c>
       <c r="C29" t="n">
-        <v>398</v>
+        <v>122</v>
       </c>
       <c r="D29" t="n">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="E29" t="n">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="F29" t="n">
-        <v>119</v>
-      </c>
-      <c r="G29" t="n">
         <v>65</v>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="J29" t="n">
-        <v>43</v>
-      </c>
-      <c r="K29" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1505,33 +1416,30 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>11373</v>
       </c>
       <c r="C30" t="n">
-        <v>11373</v>
+        <v>5041</v>
       </c>
       <c r="D30" t="n">
-        <v>5041</v>
+        <v>327</v>
       </c>
       <c r="E30" t="n">
-        <v>327</v>
+        <v>4547</v>
       </c>
       <c r="F30" t="n">
-        <v>4547</v>
+        <v>49</v>
       </c>
       <c r="G30" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H30" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I30" t="n">
-        <v>85</v>
+        <v>946</v>
       </c>
       <c r="J30" t="n">
-        <v>946</v>
-      </c>
-      <c r="K30" t="n">
         <v>361</v>
       </c>
     </row>
@@ -1546,7 +1454,6 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1563,7 +1470,6 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1580,7 +1486,6 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
